--- a/medicine/Œil et vue/Artère_hyaloïdienne/Artère_hyaloïdienne.xlsx
+++ b/medicine/Œil et vue/Artère_hyaloïdienne/Artère_hyaloïdienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_hyalo%C3%AFdienne</t>
+          <t>Artère_hyaloïdienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère hyaloïde ou hyaloïdienne est une branche terminale axiale de l’artère centrale de la rétine qui, chez le fœtus, parcourt le canal hyaloïdien, vascularisant le corps vitré primaire et la tunique vasculaire entourant le cristallin primaire; elle n'est généralement pas présente après la naissance.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_hyalo%C3%AFdienne</t>
+          <t>Artère_hyaloïdienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Embryogenèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une artère qui se forme (avec le veine hyaloïde) dans le mésenchyme situé dans les fentes linéaires qui apparaissent au cours de l'organogenèse de l'oeil, sur la face inférieure des cupules optiques et le long des pédoncules optiques (connues sous le nom de fentes choroïdiennes ou colobomiques).
 L'artère hyaloïde prend son origine des vaisseaux céphaliques ; elle irrigue le feuillet interne et le mésenchyme de la cupule optique ; elle donne aussi des branches qui vont atteindre le pôle postérieur de la vésicule cristallinienne, mais au fur et à mesure que les bords de la fente colobomique se rencontrent et se soudent, les vaisseaux hyaloïdes (artère et veine) sont enfermés dans le nerf optique.
